--- a/biology/Zoologie/Exogyra/Exogyra.xlsx
+++ b/biology/Zoologie/Exogyra/Exogyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exogyre
 Exogyra (exogyre en français) est un genre de mollusques fossiles (proches de l'huître) ayant vécu en milieu marin au Jurassique et au Crétacé.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un mollusque bivalve à coquille inéquivalve, fixé à un substrat sous-marin dur par sa valve gauche très bombée et courbée en crochet. La valve droite est plate et de petite taille, en forme d'opercule.
 </t>
@@ -544,7 +558,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exogyres vivaient dans des milieux marins peu profonds ayant un substrat dur sur lequel elles pouvaient se fixer.
 </t>
@@ -575,56 +591,58 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Exogyra (sous-genre Exogyra) (Say, 1820)
-Exogyra africana Say, 1820[1]
+Exogyra africana Say, 1820
 Exogyra aquillana Stephenson, 1953
-Exogyra arietina[2],[3]
+Exogyra arietina,
 Exogyra callophyla Ihering, 1903
 Exogyra cancellata Stephenson, 1914
 Exogyra clarki Shattuck, 1903
 Exogyra columbella Meek, 1876
 Exogyra contorta Eichwald, 1868
 Exogyra costata
-Exogyra davidsoni[4]
+Exogyra davidsoni
 Exogyra columba
-Exogyra erraticostata Stephenson[5]
+Exogyra erraticostata Stephenson
 Exogyra fimbriata Conrad, 1855
 Exogyra flabellata
 Exogyra ganhamoroba Maury, 1936
 Exogyra guadalupae Whitney, 1937 (thèse)
 Exogyra haliotoidea Maury, 1936
-Exogyra laevigata[6]
+Exogyra laevigata
 Exogyra laeviuscula Roemer, 1849
 Exogyra lancha Stoyanow, 1949
 Exogyra levis Stephenson, 1952
 Exogyra mutatoria White, 1887
-Exogyra obliquata Pulteney[7]
+Exogyra obliquata Pulteney
 Exogyra paupercula Cragin, 1893
 Exogyra plexa Cragin, 1893
 Exogyra potosina Castillo and Aguilera, 1895
 Exogyra ponderosa Roemer, 1852
-Exogyra praevirgula Douville &amp; Jourdy, 1924[8]
+Exogyra praevirgula Douville &amp; Jourdy, 1924
 Exogyra quitmanensis Cragin, 1893
 Exogyra sergipensis Maury, 1936
-Exogyra sigmoidea[9] Reuss, 1844
+Exogyra sigmoidea Reuss, 1844
 Exogyra solea Muller, 1910
 Exogyra upatoiensis Stephenson, 1914
 Exogyra virgula Defrance, 1820
 Exogyra whitneyi Bose, 1910
 Exogyra woolmani Richards, 1947
-Exogyra (sous-genre Aetostreon) (Bayle, 1878)[10] 
+Exogyra (sous-genre Aetostreon) (Bayle, 1878) 
 Exogyra aquila Brongniart, 1871
 Exogyra bale
 Exogyra couloni Say, 1820
-Exogyra imbricatum Kraus, 1843[11] (possible morphotype d'E. couloni)
-Exogyra latissimum[12]
-Exogyra miotaurinensis Sacco, 1897[13] (espèce type du sous-genre)
-Exogyra neocomiensis[14]
-Exogyra pilmatuegrossum[15]
-Exogyra rectangularis[14]
+Exogyra imbricatum Kraus, 1843 (possible morphotype d'E. couloni)
+Exogyra latissimum
+Exogyra miotaurinensis Sacco, 1897 (espèce type du sous-genre)
+Exogyra neocomiensis
+Exogyra pilmatuegrossum
+Exogyra rectangularis
 </t>
         </is>
       </c>
@@ -653,10 +671,12 @@
           <t>« Marnes à exogyres »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles de l'espèce Exogyra virgula abondent dans les sédiments du Kimméridgien (Lorraine[16], Boulonnais, Charente-Maritime, canton du Jura en Suisse...) où elles forment des lumachelles.
-Elles donnent leur nom à une formation géologique  : les « marnes à exogyres » dans les Bassins parisien et aquitain en France, ou « marnes à virgula » en Suisse[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de l'espèce Exogyra virgula abondent dans les sédiments du Kimméridgien (Lorraine, Boulonnais, Charente-Maritime, canton du Jura en Suisse...) où elles forment des lumachelles.
+Elles donnent leur nom à une formation géologique  : les « marnes à exogyres » dans les Bassins parisien et aquitain en France, ou « marnes à virgula » en Suisse.
 </t>
         </is>
       </c>
